--- a/BalanceSheet/TDY_bal.xlsx
+++ b/BalanceSheet/TDY_bal.xlsx
@@ -507,16 +507,16 @@
         <v>328000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>27200000.0</v>
+        <v>347000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>33100000.0</v>
+        <v>365000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>10400000.0</v>
+        <v>392000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-16400000.0</v>
+        <v>401000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>393400000.0</v>
@@ -1788,16 +1788,16 @@
         <v>250000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>5900000.0</v>
+        <v>229000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-31800000.0</v>
+        <v>217000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-19400000.0</v>
+        <v>245000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-1000000.0</v>
+        <v>263000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>271100000.0</v>
@@ -3586,10 +3586,8 @@
           <t>Additional Paid In Capital</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>398400000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>389900000.0</v>
@@ -3715,10 +3713,8 @@
           <t>Common Stock (Net)</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>400000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0.0</v>
@@ -3844,10 +3840,8 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>3412600000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>3328000000.0</v>
@@ -3973,10 +3967,8 @@
           <t>Treasury Stock</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>50200000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>59500000.0</v>
@@ -4497,10 +4489,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>37061000.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>36952000.0</v>
@@ -4627,7 +4617,7 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>799099900.0</v>
+        <v>799099600.0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>668899900.0</v>
@@ -4769,7 +4759,7 @@
         <v>753000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>789000000.0</v>
+        <v>651100000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>796900000.0</v>
@@ -4896,7 +4886,7 @@
         <v>984000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>989000000.0</v>
+        <v>850600000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>925400000.0</v>
